--- a/_Format/shStaffChange_example.xlsx
+++ b/_Format/shStaffChange_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\she\_Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leong.chen\Desktop\she\樣板Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>部門名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,58 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>彙整人員</t>
-  </si>
-  <si>
-    <t>是否執行檢查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢查日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健檢醫院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否結案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAB8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢查類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認檢查類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定檢資格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9T523501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾蝕刻課</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕭oo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1108oooo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,13 +91,6 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -164,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -172,70 +114,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -544,116 +452,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="9.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="7" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="3" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>202502</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>